--- a/biology/Zoologie/Erythromachus_leguati/Erythromachus_leguati.xlsx
+++ b/biology/Zoologie/Erythromachus_leguati/Erythromachus_leguati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythromachus · râle de Rodrigues
 Erythromachus leguati, ou râle de Rodrigues, est une espèce fossile d'oiseaux de la famille des Rallidae, quelquefois rattachée aussi au genre Aphanapteryx, mais aujourd'hui dans le genre fossile Erythromachus
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Erythromachus et l'espèce Erythromachus leguati sont décrits en 1873 par le paléontologue français Alphonse Milne-Edwards (1835-1900)[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Erythromachus et l'espèce Erythromachus leguati sont décrits en 1873 par le paléontologue français Alphonse Milne-Edwards (1835-1900).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était endémique de l'île Rodrigues.
 </t>
@@ -574,7 +590,9 @@
           <t>Disparition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son existence est attestée par un certain nombre d'os et de spécimens et par plusieurs récits de voyageurs, notamment celui du colon François Leguat, ayant séjourné dans l'ile de 1691 à 1693. Le dernier en date étant celui de Julien Tafforet daté de 1726.
 Incapable de voler, elle a disparu parce qu'elle était trop chassée, sa viande étant excellente. Son extinction remonterait au milieu du XVIIIe siècle. Alexandre Guy Pingré a avancé la date de 1761.
